--- a/nodes.xlsx
+++ b/nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanhori/Desktop/personal-finace-flowchart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanhori/Desktop/personal-finance-flowchart/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,9 +71,6 @@
     <t>Pay Income Earning Expenses</t>
   </si>
   <si>
-    <t>Necessary transprotation expenses, possibly internet/phone, anything required to continue earning income</t>
-  </si>
-  <si>
     <t>Pay Health Care</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>9, 10, 13</t>
+  </si>
+  <si>
+    <t>Necessary transportation expenses, possibly internet/phone, anything required to continue earning income</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +543,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
       <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
-        <v>58</v>
-      </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -748,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -804,10 +804,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -876,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -888,10 +888,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -903,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13">
         <v>13</v>
@@ -921,10 +921,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>14</v>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -966,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -978,10 +978,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1008,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1023,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
         <v>14</v>
@@ -1035,7 +1035,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1050,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>17</v>
@@ -1062,10 +1062,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1092,7 +1092,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1107,7 +1107,7 @@
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20">
         <v>19</v>
@@ -1119,10 +1119,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21">
         <v>23</v>
@@ -1152,7 +1152,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1167,7 +1167,7 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22">
         <v>21</v>
@@ -1182,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1197,7 +1197,7 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23">
         <v>19</v>
@@ -1209,7 +1209,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -1224,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K24">
         <v>19</v>
@@ -1236,7 +1236,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -1251,7 +1251,7 @@
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25">
         <v>24</v>
@@ -1266,7 +1266,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -1281,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K26">
         <v>24</v>
@@ -1293,7 +1293,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -1308,7 +1308,7 @@
         <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I27">
         <v>26</v>
@@ -1323,7 +1323,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -1338,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28">
         <v>27</v>
@@ -1350,7 +1350,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I29">
         <v>28</v>
@@ -1380,7 +1380,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K30">
         <v>29</v>
@@ -1407,7 +1407,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -1422,7 +1422,7 @@
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I31">
         <v>29</v>
@@ -1437,10 +1437,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
         <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -1455,7 +1455,7 @@
         <v>29</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -1466,7 +1466,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33">
         <v>-1</v>
